--- a/doc/tables/VRML_decision_table_NCA.xlsx
+++ b/doc/tables/VRML_decision_table_NCA.xlsx
@@ -30,18 +30,6 @@
     <t>Buffer</t>
   </si>
   <si>
-    <t>Long-term Equil. Yield (MSY proxy, SPR50%), with buffer</t>
-  </si>
-  <si>
-    <t>Long-term Equil. Yield (MSY proxy, SPR50%), no buffer</t>
-  </si>
-  <si>
-    <t>P* = 0.40, sigma = 1</t>
-  </si>
-  <si>
-    <t>P* = 0.45, sigma = 1</t>
-  </si>
-  <si>
     <t>Spawning Output1</t>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>Fraction Unfished3</t>
+  </si>
+  <si>
+    <t>Long-term Equil. Yield (MSY proxy, $SPR_{50\%}$), no buffer</t>
+  </si>
+  <si>
+    <t>Long-term Equil. Yield (MSY proxy, $SPR_{50\%}$), with buffer</t>
+  </si>
+  <si>
+    <t>$p^\ast = 0.45,  \sigma = 1$</t>
+  </si>
+  <si>
+    <t>$p^\ast = 0.40,  \sigma = 1$</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A14" sqref="A14:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1024,29 +1024,29 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>2021</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>2022</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>2023</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>2024</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>2025</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>2026</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>2027</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>2028</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>2029</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>2030</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>2031</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>2032</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>2021</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4">
         <v>2022</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>2023</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>2024</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4">
         <v>2025</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>2026</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>2027</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4">
         <v>2028</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4">
         <v>2029</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4">
         <v>2030</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4">
         <v>2031</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4">
         <v>2032</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" s="5">
         <v>2021</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4">
         <v>2022</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4">
         <v>2023</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4">
         <v>2024</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4">
         <v>2025</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4">
         <v>2026</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32" s="4">
         <v>2027</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B33" s="4">
         <v>2028</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4">
         <v>2029</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4">
         <v>2030</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4">
         <v>2031</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B37" s="8">
         <v>2032</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B38" s="5">
         <v>2021</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4">
         <v>2022</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4">
         <v>2023</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4">
         <v>2024</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B42" s="4">
         <v>2025</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4">
         <v>2026</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4">
         <v>2027</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4">
         <v>2028</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46" s="4">
         <v>2029</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4">
         <v>2030</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B48" s="4">
         <v>2031</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" s="8">
         <v>2032</v>
